--- a/pred_ohlcv/54_21/2020-01-11 LTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 LTC ohlcv.xlsx
@@ -3070,7 +3070,7 @@
         <v>-713.1572804799996</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-736.8339804799996</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-736.8339804799996</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-738.8339804799996</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-638.4387804799995</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-738.4387804799995</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-746.2853804799995</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-746.2853804799995</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-745.2952804799995</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-745.2952804799995</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-695.2952804799995</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-695.2952804799995</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-390.1315778699995</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-401.6228778699996</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-456.4327778699995</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-458.0075778699995</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-458.0075778699995</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-458.0075778699995</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-375.7066778699995</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-3101.490651709998</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-3101.490651709998</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-3104.090751709998</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-3098.814751709998</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-3098.389651709998</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-3262.448951709998</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-3272.559651709998</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-3265.946751709998</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-3265.946751709998</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-3524.913266019998</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-3637.559666019999</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-3623.452066019999</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-3607.803766019999</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-3607.281266019999</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-3605.281266019999</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-2987.51806602</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-2987.51806602</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-2987.51806602</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-3031.29316602</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-3031.29316602</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-3027.402766019999</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-3027.402766019999</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-3023.38597183</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-3007.619971829999</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-3007.619971829999</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-2651.830371829999</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-2582.45927183</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-2560.20147183</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-2560.20147183</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-2963.37197183</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-2963.37197183</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-3061.6311401</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-2909.8025401</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-3009.8025401</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-3119.3868401</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-2978.6998401</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-2978.6998401</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-2978.6998401</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-2978.6998401</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-2971.5860401</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-2957.1802401</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-2924.6075401</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-2924.6075401</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-2924.6075401</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-2715.15684491</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-2727.25684491</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-2727.25684491</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-2719.16944491</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-2782.82744491</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-2782.82744491</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-2788.19104491</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-2609.051425140001</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-2916.346525140001</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-2997.084825140001</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-2663.021925140001</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-3135.882425140001</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-3130.170525140001</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-3116.260425140001</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-3120.560825140001</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-3119.701430060001</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-3119.701430060001</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-3091.553230060001</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-3180.641430060001</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-3180.641430060001</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-3165.673230060002</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-3165.673230060002</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-3291.446830060002</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-3304.841130060001</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-3339.921930060002</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-3491.602530060002</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-3418.289030060002</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-3418.289030060002</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-3418.289030060002</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-3463.664630060001</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-3463.664630060001</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-3466.664630060001</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-3166.762530060002</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-3166.400630060002</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-3250.202385970002</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-3195.386185970001</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-3195.376185970001</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-3195.376185970001</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-3195.376185970001</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-3256.149285970001</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-3255.145085970001</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-3255.145085970001</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-3255.391085970001</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-3344.544485970001</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-3349.223085970002</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-3349.223085970002</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-3492.277185970001</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-11 LTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 LTC ohlcv.xlsx
@@ -3070,7 +3070,7 @@
         <v>-713.1572804799996</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-736.8339804799996</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-736.8339804799996</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-738.8339804799996</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-638.4387804799995</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-738.4387804799995</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-746.2853804799995</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-746.2853804799995</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-745.2952804799995</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-745.2952804799995</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-695.2952804799995</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-695.2952804799995</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-390.1315778699995</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-401.6228778699996</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-456.4327778699995</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-458.0075778699995</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-458.0075778699995</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-458.0075778699995</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-375.7066778699995</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-3104.090751709998</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-3098.814751709998</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-3098.389651709998</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-3098.389651709998</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-3098.389651709998</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-3148.389651709998</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-3148.389651709998</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-3148.389651709998</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-3148.389651709998</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-3148.389651709998</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-3148.389651709998</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-3148.389651709998</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-3190.404551709998</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-3190.404551709998</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-3188.604551709998</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-3306.025951709998</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-3604.281266019999</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-3600.997166019999</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-3597.317166019999</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-3630.633466019999</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-3636.479566019999</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-3476.029266019999</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-3466.57926602</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-3466.57926602</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-3468.338666019999</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-3468.338666019999</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-3462.98956602</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-3461.98956602</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-3451.98956602</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-3451.98956602</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-3451.98956602</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-3431.98956602</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-3458.04876602</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-2987.51806602</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-2987.51806602</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-2987.51806602</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-3031.29316602</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-3031.29316602</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-3027.402766019999</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-3027.402766019999</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-3023.38597183</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-3007.619971829999</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-3007.619971829999</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-2651.830371829999</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-2582.45927183</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-2560.20147183</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-2560.20147183</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-2963.37197183</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-2963.37197183</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-3061.6311401</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-2909.8025401</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-3009.8025401</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-3119.3868401</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-2978.6998401</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-2978.6998401</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-2978.6998401</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-2978.6998401</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-2971.5860401</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-2957.1802401</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-2924.6075401</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-2924.6075401</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-2924.6075401</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-2715.15684491</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-2727.25684491</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-2727.25684491</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-2719.16944491</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-2782.82744491</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-2782.82744491</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-2788.19104491</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-2481.440244910001</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-2976.175828900001</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-2609.051425140001</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-2916.346525140001</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-2997.084825140001</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-2663.021925140001</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-3135.882425140001</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-3130.170525140001</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-3116.260425140001</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-3120.560825140001</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-3119.701430060001</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-3119.701430060001</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-3091.553230060001</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-3180.641430060001</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-3180.641430060001</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-3165.673230060002</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-3165.673230060002</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-3291.446830060002</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-3304.841130060001</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-3339.921930060002</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-3250.202385970002</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-3195.376185970001</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
